--- a/FitandHealthyData.xlsx
+++ b/FitandHealthyData.xlsx
@@ -12,9 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Programs" sheetId="1" r:id="rId1"/>
-    <sheet name="Training" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Users" sheetId="3" r:id="rId1"/>
+    <sheet name="Roles" sheetId="10" r:id="rId2"/>
+    <sheet name="Actions" sheetId="8" r:id="rId3"/>
+    <sheet name="Diets" sheetId="4" r:id="rId4"/>
+    <sheet name="Categories" sheetId="9" r:id="rId5"/>
+    <sheet name="Exercises" sheetId="7" r:id="rId6"/>
+    <sheet name="Trainings" sheetId="2" r:id="rId7"/>
+    <sheet name="Comments" sheetId="5" r:id="rId8"/>
+    <sheet name="Programs" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
   <si>
     <t>Id</t>
   </si>
@@ -71,6 +77,105 @@
   </si>
   <si>
     <t>njnjnjnj</t>
+  </si>
+  <si>
+    <t>Trening 1</t>
+  </si>
+  <si>
+    <t>Trening 2</t>
+  </si>
+  <si>
+    <t>Trening 3</t>
+  </si>
+  <si>
+    <t>bla</t>
+  </si>
+  <si>
+    <t>blabla</t>
+  </si>
+  <si>
+    <t>blablabla</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>blabla bla</t>
+  </si>
+  <si>
+    <t>komentaar</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Banned</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>RadetByNo</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>lejla</t>
+  </si>
+  <si>
+    <t>berina</t>
+  </si>
+  <si>
+    <t>nedim</t>
+  </si>
+  <si>
+    <t>ex 1</t>
+  </si>
+  <si>
+    <t>ex 2</t>
+  </si>
+  <si>
+    <t>ex 3</t>
+  </si>
+  <si>
+    <t>act 1</t>
+  </si>
+  <si>
+    <t>act 2</t>
+  </si>
+  <si>
+    <t>act 3</t>
+  </si>
+  <si>
+    <t>Category 1</t>
+  </si>
+  <si>
+    <t>Category 2</t>
+  </si>
+  <si>
+    <t>Category 3</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>diet 1</t>
+  </si>
+  <si>
+    <t>diet 2</t>
+  </si>
+  <si>
+    <t>diet 3</t>
+  </si>
+  <si>
+    <t>desc</t>
   </si>
 </sst>
 </file>
@@ -388,10 +493,495 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,9 +1027,6 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
-        <v>40</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -450,9 +1037,6 @@
       </c>
       <c r="C3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -465,9 +1049,6 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
-        <v>120</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -479,65 +1060,8 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5">
-        <v>60</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>